--- a/T9.xlsx
+++ b/T9.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Desktop\singhalpriyank\ProjectF13\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="0" windowWidth="25600" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="1740" yWindow="0" windowWidth="25605" windowHeight="16245" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Daily</t>
   </si>
@@ -54,14 +59,59 @@
     <t>Change settings</t>
   </si>
   <si>
-    <t>Check settings</t>
+    <t>Check Social network</t>
+  </si>
+  <si>
+    <t>t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>Every few months</t>
+  </si>
+  <si>
+    <t>More than once a month</t>
+  </si>
+  <si>
+    <t>Almost never</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,6 +120,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -85,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -93,14 +151,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,7 +191,1295 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ratio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of users who change their settings compared to their frequency of access</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Check Social network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>More than once a month</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Every few months</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Almost never</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Change settings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5462668816039986E-17"/>
+                  <c:y val="-8.7962962962962965E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{34976DBB-0215-40C4-A9E4-2FC59AE69EFF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-7.8703703703703706E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{39C91A18-57CF-4122-B0FF-8E0890811BD8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526415994E-16"/>
+                  <c:y val="-5.092592592592584E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B8427403-61F5-4434-9859-3E306774A96F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$7:$M$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>More than once a month</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Every few months</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Almost never</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$K$11:$M$11</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>26%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>90%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>11%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="1332911328"/>
+        <c:axId val="1332900448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1332911328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050" baseline="0"/>
+                  <a:t> of accessing social networks</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1050"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1332900448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1332900448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050"/>
+                  <a:t>Number of users</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1332911328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,15 +1804,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +1829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -478,7 +1849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -498,7 +1869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -518,7 +1889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -538,7 +1909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>SUM(B2:B5)</f>
         <v>103</v>
@@ -560,18 +1931,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>10</v>
       </c>
@@ -582,10 +1953,10 @@
         <v>27</v>
       </c>
       <c r="M8">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>11</v>
       </c>
@@ -599,7 +1970,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K11" s="1">
         <f>K8/K9</f>
         <v>0.25806451612903225</v>
@@ -610,11 +1981,319 @@
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>0.19565217391304349</v>
-      </c>
+        <v>0.10869565217391304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2">
+        <v>97.5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="2">
+        <v>97.5</v>
+      </c>
+      <c r="M16" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="17" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2">
+        <v>6612.5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="2">
+        <v>6612.5</v>
+      </c>
+      <c r="M17" s="2">
+        <v>684.5</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>684.5</v>
+      </c>
+    </row>
+    <row r="18" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2">
+        <v>2</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1.2321428571428572</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1.7948717948717952</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="2">
+        <v>5.8823529411764719E-2</v>
+      </c>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.21701435500288047</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.1618002971932079</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.48129744075872327</v>
+      </c>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="2">
+        <v>6.3137515146750438</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="2">
+        <v>6.3137515146750438</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="2">
+        <v>6.3137515146750438</v>
+      </c>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.43402871000576093</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.32360059438641581</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="O25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.96259488151744654</v>
+      </c>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="7:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="3">
+        <v>12.706204736174707</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="3">
+        <v>12.706204736174707</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="O26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="3">
+        <v>12.706204736174707</v>
+      </c>
+      <c r="Q26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
